--- a/excel/uploads/Сведения об исполненных заказах на поставку косметической продукциипредприятиям торговли и сервиса за 2024 год.xlsx
+++ b/excel/uploads/Сведения об исполненных заказах на поставку косметической продукциипредприятиям торговли и сервиса за 2024 год.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Наименование товара</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Стоимость, руб.</t>
   </si>
   <si>
-    <t>EyeCream</t>
+    <t>LipBalm</t>
   </si>
   <si>
     <t>Cosmetica</t>
   </si>
   <si>
-    <t>2024-12-25</t>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
   </si>
   <si>
     <t>Предприятие</t>
@@ -52,6 +55,15 @@
     <t xml:space="preserve">Итого по предприятию: </t>
   </si>
   <si>
+    <t>Powder</t>
+  </si>
+  <si>
+    <t>PureGlow</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
     <t>EyeshadowPalette</t>
   </si>
   <si>
@@ -61,88 +73,82 @@
     <t>2024-01-20</t>
   </si>
   <si>
-    <t>Powder</t>
-  </si>
-  <si>
-    <t>PureGlow</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
+    <t>GlamourGoods</t>
+  </si>
+  <si>
+    <t>Highlighter</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>VelvetTouch</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
+    <t>RadiantSkin</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>HairOil</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>PerfectLookStore</t>
+  </si>
+  <si>
+    <t>BodyLotion</t>
+  </si>
+  <si>
+    <t>HerbalEssence</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>BodyWash</t>
+  </si>
+  <si>
+    <t>AquaBloom</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>BathBomb</t>
+  </si>
+  <si>
+    <t>SilkTouch</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>HandCream</t>
   </si>
   <si>
-    <t>HerbalEssence</t>
-  </si>
-  <si>
-    <t>2024-12-14</t>
-  </si>
-  <si>
-    <t>GlamourGoods</t>
-  </si>
-  <si>
-    <t>Highlighter</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>Primer</t>
-  </si>
-  <si>
-    <t>RadiantSkin</t>
-  </si>
-  <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
-    <t>HairOil</t>
-  </si>
-  <si>
-    <t>VelvetTouch</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>Shampoo</t>
-  </si>
-  <si>
-    <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>PerfectLookStore</t>
-  </si>
-  <si>
-    <t>Conditioner</t>
-  </si>
-  <si>
-    <t>AquaBloom</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>BodyWash</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>BodyLotion</t>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>BathBomb</t>
-  </si>
-  <si>
-    <t>SilkTouch</t>
+    <t>huiii</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
   </si>
   <si>
     <t>StyleEssentials</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,80 +544,80 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
-        <v>3402</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5292</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -625,38 +631,38 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10">
-        <v>678</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
-        <v>30510</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>30676</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -681,13 +687,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -701,75 +707,75 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
       <c r="D18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
         <v>340</v>
@@ -797,33 +803,33 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
         <v>35</v>
       </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2">
-        <v>30</v>
-      </c>
       <c r="F25" s="2">
-        <v>180</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -837,86 +843,106 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F27" s="2">
-        <v>245</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2">
-        <v>90</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
       <c r="D29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2">
-        <v>288</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>9000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2">
+        <v>873000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2">
-        <v>35341</v>
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2">
+        <v>873923</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2">
+        <v>881961</v>
       </c>
     </row>
   </sheetData>
